--- a/docs/StructureDefinition-MyPatient.xlsx
+++ b/docs/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T14:42:12-04:00</t>
+    <t>2024-10-31T11:09:52-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
